--- a/TrapNest2019.xlsx
+++ b/TrapNest2019.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forsb118\Documents\Spring 2020 files\Final data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulmetzger/Downloads/recomprehensivepaperreadyforsubmissiontopeerj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0D72E-47C6-46D1-87F5-44F078EB063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05278A47-5682-9945-B753-A31CF8B340D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 stem bundle data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1245,7 +1245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1533,7 +1533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1543,11 +1543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>169</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>174</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>185</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>186</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>190</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>191</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>193</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>194</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>195</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>198</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>199</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>205</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>206</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>207</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>210</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>213</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>214</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>217</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>219</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -11176,14 +11176,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.453125" customWidth="1"/>
+    <col min="1" max="1" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>224</v>
       </c>
